--- a/Assets/Excel_Data/Entity_ContestStartListDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_ContestStartListDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D60870E-0594-44AB-89A3-393CB6667F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F29886B-5221-425D-8832-80B67374154C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="24465" windowHeight="12720" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
@@ -177,34 +177,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>クレープキングカップ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ベリーズカップ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>珠玉のクレープ作りを目指せ！！
-ええ味ができたら、ワイは喜ぶさかいな。</t>
-    <rPh sb="0" eb="2">
-      <t>シュギョク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>メザ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ヨロコ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ベリーの扱いに長けたものを決めるコンテストです。
 ベリー系お菓子で優勝目指そう☆</t>
     <rPh sb="4" eb="5">
@@ -263,6 +235,62 @@
   </si>
   <si>
     <t>GetPatissierPoint</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ORANGINA Patissier AWARD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オランジーナ国の準パティシエ達が競うコンペ
+ええ味ができたら、ワイは喜ぶさかいな。</t>
+    <rPh sb="6" eb="7">
+      <t>コク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヨロコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ベリーズ賞</t>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Or_Contest_040</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プラトンアカデミーコンテスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プラトンアカデミーコンテスト
+オランジーナ国でも権威のある賞でハイクラス</t>
+    <rPh sb="21" eb="22">
+      <t>コク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケンイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ショウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -649,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -708,27 +736,27 @@
         <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A5" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A6" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2">
@@ -762,7 +790,7 @@
         <v>10</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -810,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -861,10 +889,10 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -873,7 +901,7 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -900,7 +928,7 @@
         <v>100</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -921,19 +949,19 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -942,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -963,6 +991,66 @@
         <v>23</v>
       </c>
       <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>13000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>90</v>
+      </c>
+      <c r="I6">
+        <v>1500</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>99</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>100</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6">
         <v>1</v>
       </c>
     </row>
